--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>14.14205662079767</v>
+        <v>489.601888997521</v>
       </c>
       <c r="R2">
-        <v>127.278509587179</v>
+        <v>4406.417000977689</v>
       </c>
       <c r="S2">
-        <v>2.148262598233129E-05</v>
+        <v>0.0001672821122898678</v>
       </c>
       <c r="T2">
-        <v>2.148262598233129E-05</v>
+        <v>0.0001672821122898678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>100.9359245193503</v>
+        <v>1925.205247029181</v>
       </c>
       <c r="R3">
-        <v>908.423320674153</v>
+        <v>17326.84722326263</v>
       </c>
       <c r="S3">
-        <v>0.0001533276787649943</v>
+        <v>0.0006577842274546633</v>
       </c>
       <c r="T3">
-        <v>0.0001533276787649943</v>
+        <v>0.0006577842274546632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>98.70566809023801</v>
+        <v>1781.953176723603</v>
       </c>
       <c r="R4">
-        <v>888.351012812142</v>
+        <v>16037.57859051243</v>
       </c>
       <c r="S4">
-        <v>0.0001499397864664406</v>
+        <v>0.0006088393409067787</v>
       </c>
       <c r="T4">
-        <v>0.0001499397864664406</v>
+        <v>0.0006088393409067787</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>28.79182538074534</v>
+        <v>462.8415115410617</v>
       </c>
       <c r="R5">
-        <v>259.126428426708</v>
+        <v>4165.573603869555</v>
       </c>
       <c r="S5">
-        <v>4.373649693167881E-05</v>
+        <v>0.000158138903149567</v>
       </c>
       <c r="T5">
-        <v>4.373649693167881E-05</v>
+        <v>0.000158138903149567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>42.84869062426967</v>
+        <v>891.8264024242668</v>
       </c>
       <c r="R6">
-        <v>385.638215618427</v>
+        <v>8026.4376218184</v>
       </c>
       <c r="S6">
-        <v>6.508971213989459E-05</v>
+        <v>0.0003047100261375022</v>
       </c>
       <c r="T6">
-        <v>6.508971213989459E-05</v>
+        <v>0.0003047100261375021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>112.7894736809984</v>
+        <v>2416.45124025715</v>
       </c>
       <c r="R7">
-        <v>1015.105263128985</v>
+        <v>21748.06116231435</v>
       </c>
       <c r="S7">
-        <v>0.0001713339256660548</v>
+        <v>0.0008256280802824553</v>
       </c>
       <c r="T7">
-        <v>0.0001713339256660548</v>
+        <v>0.0008256280802824552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>226.9662556819216</v>
+        <v>411.9652031974949</v>
       </c>
       <c r="R8">
-        <v>2042.696301137295</v>
+        <v>3707.686828777455</v>
       </c>
       <c r="S8">
-        <v>0.0003447752552662231</v>
+        <v>0.0001407560120364456</v>
       </c>
       <c r="T8">
-        <v>0.0003447752552662231</v>
+        <v>0.0001407560120364456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>1619.923428835618</v>
@@ -1013,10 +1013,10 @@
         <v>14579.31085952056</v>
       </c>
       <c r="S9">
-        <v>0.002460760133749794</v>
+        <v>0.0005534786915923023</v>
       </c>
       <c r="T9">
-        <v>0.002460760133749795</v>
+        <v>0.0005534786915923025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>1584.12998206199</v>
+        <v>1499.38698978565</v>
       </c>
       <c r="R10">
-        <v>14257.16983855791</v>
+        <v>13494.48290807085</v>
       </c>
       <c r="S10">
-        <v>0.002406387757066935</v>
+        <v>0.0005122950471144117</v>
       </c>
       <c r="T10">
-        <v>0.002406387757066935</v>
+        <v>0.0005122950471144118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>462.0807974495933</v>
+        <v>389.448246902525</v>
       </c>
       <c r="R11">
-        <v>4158.727177046339</v>
+        <v>3505.034222122725</v>
       </c>
       <c r="S11">
-        <v>0.0007019282422210446</v>
+        <v>0.0001330626511732479</v>
       </c>
       <c r="T11">
-        <v>0.0007019282422210448</v>
+        <v>0.0001330626511732479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>687.6798143744816</v>
+        <v>750.4085530467883</v>
       </c>
       <c r="R12">
-        <v>6189.118329370334</v>
+        <v>6753.676977421094</v>
       </c>
       <c r="S12">
-        <v>0.001044626580414068</v>
+        <v>0.0002563918372355089</v>
       </c>
       <c r="T12">
-        <v>0.001044626580414068</v>
+        <v>0.0002563918372355089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>1810.161365360658</v>
+        <v>2033.272028928826</v>
       </c>
       <c r="R13">
-        <v>16291.45228824592</v>
+        <v>18299.44826035944</v>
       </c>
       <c r="S13">
-        <v>0.002749742885523518</v>
+        <v>0.0006947073683795398</v>
       </c>
       <c r="T13">
-        <v>0.002749742885523519</v>
+        <v>0.0006947073683795398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>9669.340621879748</v>
+        <v>22037.01682089388</v>
       </c>
       <c r="R14">
-        <v>87024.06559691773</v>
+        <v>198333.151388045</v>
       </c>
       <c r="S14">
-        <v>0.0146883040879728</v>
+        <v>0.007529380104955318</v>
       </c>
       <c r="T14">
-        <v>0.01468830408797281</v>
+        <v>0.007529380104955319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>69012.86434722907</v>
+        <v>86653.62892966704</v>
       </c>
       <c r="R15">
-        <v>621115.7791250617</v>
+        <v>779882.6603670034</v>
       </c>
       <c r="S15">
-        <v>0.1048346497609529</v>
+        <v>0.02960691617145803</v>
       </c>
       <c r="T15">
-        <v>0.1048346497609529</v>
+        <v>0.02960691617145803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>67487.97234138672</v>
+        <v>80205.84277137494</v>
       </c>
       <c r="R16">
-        <v>607391.7510724805</v>
+        <v>721852.5849423745</v>
       </c>
       <c r="S16">
-        <v>0.1025182480166137</v>
+        <v>0.02740390324934502</v>
       </c>
       <c r="T16">
-        <v>0.1025182480166138</v>
+        <v>0.02740390324934503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>19685.81898637643</v>
+        <v>20832.53027500058</v>
       </c>
       <c r="R17">
-        <v>177172.3708773879</v>
+        <v>187492.7724750052</v>
       </c>
       <c r="S17">
-        <v>0.02990393107451351</v>
+        <v>0.007117843593047009</v>
       </c>
       <c r="T17">
-        <v>0.02990393107451351</v>
+        <v>0.007117843593047009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>29296.91175456766</v>
+        <v>40141.17157877296</v>
       </c>
       <c r="R18">
-        <v>263672.205791109</v>
+        <v>361270.5442089566</v>
       </c>
       <c r="S18">
-        <v>0.04450375320483217</v>
+        <v>0.01371502055524371</v>
       </c>
       <c r="T18">
-        <v>0.04450375320483217</v>
+        <v>0.01371502055524371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>77117.48501842725</v>
+        <v>108764.6470021817</v>
       </c>
       <c r="R19">
-        <v>694057.3651658453</v>
+        <v>978881.823019635</v>
       </c>
       <c r="S19">
-        <v>0.1171460510851402</v>
+        <v>0.03716158025909683</v>
       </c>
       <c r="T19">
-        <v>0.1171460510851403</v>
+        <v>0.03716158025909683</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>561.2469046763283</v>
+        <v>2726.857555595461</v>
       </c>
       <c r="R20">
-        <v>5051.222142086955</v>
+        <v>24541.71800035915</v>
       </c>
       <c r="S20">
-        <v>0.0008525674631489798</v>
+        <v>0.0009316845013559661</v>
       </c>
       <c r="T20">
-        <v>0.0008525674631489799</v>
+        <v>0.0009316845013559662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>4005.780539997131</v>
+        <v>10722.50861752727</v>
       </c>
       <c r="R21">
-        <v>36052.02485997418</v>
+        <v>96502.5775577454</v>
       </c>
       <c r="S21">
-        <v>0.006085019132330811</v>
+        <v>0.003663555903060157</v>
       </c>
       <c r="T21">
-        <v>0.006085019132330814</v>
+        <v>0.003663555903060157</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>3917.26975609651</v>
+        <v>9924.660408511403</v>
       </c>
       <c r="R22">
-        <v>35255.42780486859</v>
+        <v>89321.94367660263</v>
       </c>
       <c r="S22">
-        <v>0.005950565981921012</v>
+        <v>0.003390955374569268</v>
       </c>
       <c r="T22">
-        <v>0.005950565981921014</v>
+        <v>0.003390955374569269</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>1142.643061629407</v>
+        <v>2577.814549231362</v>
       </c>
       <c r="R23">
-        <v>10283.78755466466</v>
+        <v>23200.33094308226</v>
       </c>
       <c r="S23">
-        <v>0.001735742840131969</v>
+        <v>0.0008807610276380267</v>
       </c>
       <c r="T23">
-        <v>0.001735742840131969</v>
+        <v>0.0008807610276380267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>1700.509029707768</v>
+        <v>4967.063278104393</v>
       </c>
       <c r="R24">
-        <v>15304.58126736991</v>
+        <v>44703.56950293954</v>
       </c>
       <c r="S24">
-        <v>0.002583174459297884</v>
+        <v>0.001697094835030233</v>
       </c>
       <c r="T24">
-        <v>0.002583174459297884</v>
+        <v>0.001697094835030233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>4476.204888788092</v>
+        <v>13458.5230782404</v>
       </c>
       <c r="R25">
-        <v>40285.84399909282</v>
+        <v>121126.7077041636</v>
       </c>
       <c r="S25">
-        <v>0.00679962172578924</v>
+        <v>0.004598369041099407</v>
       </c>
       <c r="T25">
-        <v>0.006799621725789243</v>
+        <v>0.004598369041099407</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>8435.919847029518</v>
+        <v>18759.76762487855</v>
       </c>
       <c r="R26">
-        <v>75923.27862326567</v>
+        <v>168837.908623907</v>
       </c>
       <c r="S26">
-        <v>0.01281466449682753</v>
+        <v>0.006409643477443059</v>
       </c>
       <c r="T26">
-        <v>0.01281466449682753</v>
+        <v>0.00640964347744306</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>60209.58561846245</v>
+        <v>73766.87851105738</v>
       </c>
       <c r="R27">
-        <v>541886.2705661621</v>
+        <v>663901.9065995165</v>
       </c>
       <c r="S27">
-        <v>0.09146194525132832</v>
+        <v>0.0252039045021377</v>
       </c>
       <c r="T27">
-        <v>0.09146194525132836</v>
+        <v>0.0252039045021377</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>58879.20878722808</v>
+        <v>68277.97903761396</v>
       </c>
       <c r="R28">
-        <v>529912.8790850526</v>
+        <v>614501.8113385257</v>
       </c>
       <c r="S28">
-        <v>0.08944102363806476</v>
+        <v>0.02332851407024129</v>
       </c>
       <c r="T28">
-        <v>0.08944102363806479</v>
+        <v>0.02332851407024129</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>17174.6965575321</v>
+        <v>17734.40707395192</v>
       </c>
       <c r="R29">
-        <v>154572.2690177889</v>
+        <v>159609.6636655673</v>
       </c>
       <c r="S29">
-        <v>0.02608938660045361</v>
+        <v>0.006059308883822696</v>
       </c>
       <c r="T29">
-        <v>0.02608938660045361</v>
+        <v>0.006059308883822696</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>25559.7986451928</v>
+        <v>34171.55130971192</v>
       </c>
       <c r="R30">
-        <v>230038.1878067352</v>
+        <v>307543.9617874073</v>
       </c>
       <c r="S30">
-        <v>0.03882685589526398</v>
+        <v>0.01167538241123729</v>
       </c>
       <c r="T30">
-        <v>0.03882685589526399</v>
+        <v>0.01167538241123729</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>67280.38114076509</v>
+        <v>92589.64224360505</v>
       </c>
       <c r="R31">
-        <v>605523.4302668858</v>
+        <v>833306.7801924456</v>
       </c>
       <c r="S31">
-        <v>0.1022029046235163</v>
+        <v>0.0316350718384419</v>
       </c>
       <c r="T31">
-        <v>0.1022029046235164</v>
+        <v>0.0316350718384419</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>4471.153615879128</v>
+        <v>135417.9447570096</v>
       </c>
       <c r="R32">
-        <v>40240.38254291215</v>
+        <v>1218761.502813087</v>
       </c>
       <c r="S32">
-        <v>0.006791948541502992</v>
+        <v>0.04626820351385512</v>
       </c>
       <c r="T32">
-        <v>0.006791948541502992</v>
+        <v>0.04626820351385512</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>31911.9089951247</v>
+        <v>532488.4230367475</v>
       </c>
       <c r="R33">
-        <v>287207.1809561223</v>
+        <v>4792395.807330728</v>
       </c>
       <c r="S33">
-        <v>0.04847608970227625</v>
+        <v>0.1819351399110694</v>
       </c>
       <c r="T33">
-        <v>0.04847608970227626</v>
+        <v>0.1819351399110694</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>31206.7909656368</v>
+        <v>492866.6377068585</v>
       </c>
       <c r="R34">
-        <v>280861.1186907312</v>
+        <v>4435799.739361727</v>
       </c>
       <c r="S34">
-        <v>0.04740497343488623</v>
+        <v>0.1683975778803128</v>
       </c>
       <c r="T34">
-        <v>0.04740497343488623</v>
+        <v>0.1683975778803128</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>9102.825537380639</v>
+        <v>128016.3488941026</v>
       </c>
       <c r="R35">
-        <v>81925.42983642576</v>
+        <v>1152147.140046923</v>
       </c>
       <c r="S35">
-        <v>0.01382773394602151</v>
+        <v>0.04373930275164971</v>
       </c>
       <c r="T35">
-        <v>0.01382773394602151</v>
+        <v>0.0437393027516497</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>13547.0450414293</v>
+        <v>246668.367116826</v>
       </c>
       <c r="R36">
-        <v>121923.4053728637</v>
+        <v>2220015.304051434</v>
       </c>
       <c r="S36">
-        <v>0.02057876796807834</v>
+        <v>0.08427909780103841</v>
       </c>
       <c r="T36">
-        <v>0.02057876796807834</v>
+        <v>0.08427909780103841</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>35659.52793176238</v>
+        <v>668361.1070847135</v>
       </c>
       <c r="R37">
-        <v>320935.7513858614</v>
+        <v>6015249.963762422</v>
       </c>
       <c r="S37">
-        <v>0.05416894598894188</v>
+        <v>0.2283587140450995</v>
       </c>
       <c r="T37">
-        <v>0.05416894598894189</v>
+        <v>0.2283587140450995</v>
       </c>
     </row>
   </sheetData>
